--- a/Mifos Automation Excels/Client/245-MS-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/245-MS-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -175,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -210,6 +210,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -217,9 +220,6 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -234,9 +234,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,10 +573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -615,25 +612,25 @@
         <v>10000</v>
       </c>
       <c r="B2" s="3">
-        <v>785.8</v>
+        <v>788.49</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="7">
-        <v>9214.2000000000007</v>
+        <v>9211.51</v>
       </c>
       <c r="F2" s="3">
-        <v>802.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+        <v>796.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>668.41</v>
+        <v>670.55</v>
       </c>
       <c r="B3" s="3">
-        <v>101.92</v>
+        <v>100</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -642,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>566.49</v>
+        <v>570.54999999999995</v>
       </c>
       <c r="F3" s="3">
-        <v>84.82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+        <v>92.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -668,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -688,24 +685,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="14"/>
-    </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D8" s="13"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="13"/>
+      <c r="A7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="15"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D13" s="13"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -718,7 +727,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="P1" sqref="P1:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -818,13 +827,13 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="3">
-        <v>785.8</v>
+        <v>788.49</v>
       </c>
       <c r="G3" s="7">
-        <v>9214.2000000000007</v>
+        <v>9211.51</v>
       </c>
       <c r="H3" s="3">
-        <v>101.92</v>
+        <v>100</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -833,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L3" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="M3" s="3">
         <v>0</v>
@@ -861,13 +870,13 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
-        <v>802.9</v>
+        <v>796.37</v>
       </c>
       <c r="G4" s="7">
-        <v>8411.2999999999993</v>
+        <v>8415.14</v>
       </c>
       <c r="H4" s="3">
-        <v>84.82</v>
+        <v>92.12</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -876,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
@@ -888,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -904,13 +913,13 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
-        <v>793.81</v>
+        <v>796.37</v>
       </c>
       <c r="G5" s="7">
-        <v>7617.49</v>
+        <v>7618.77</v>
       </c>
       <c r="H5" s="3">
-        <v>93.91</v>
+        <v>92.12</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -919,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
@@ -931,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -947,13 +956,13 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
-        <v>812.59</v>
+        <v>812.3</v>
       </c>
       <c r="G6" s="7">
-        <v>6804.9</v>
+        <v>6806.47</v>
       </c>
       <c r="H6" s="3">
-        <v>75.13</v>
+        <v>76.19</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -962,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -974,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -990,13 +999,13 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
-        <v>818.37</v>
+        <v>820.43</v>
       </c>
       <c r="G7" s="7">
-        <v>5986.53</v>
+        <v>5986.04</v>
       </c>
       <c r="H7" s="3">
-        <v>69.349999999999994</v>
+        <v>68.06</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1005,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
@@ -1017,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1033,13 +1042,13 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
-        <v>828.67</v>
+        <v>828.63</v>
       </c>
       <c r="G8" s="7">
-        <v>5157.8599999999997</v>
+        <v>5157.41</v>
       </c>
       <c r="H8" s="3">
-        <v>59.05</v>
+        <v>59.86</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -1048,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -1060,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1076,13 +1085,13 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
-        <v>835.15</v>
+        <v>836.92</v>
       </c>
       <c r="G9" s="7">
-        <v>4322.71</v>
+        <v>4320.49</v>
       </c>
       <c r="H9" s="3">
-        <v>52.57</v>
+        <v>51.57</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -1091,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -1103,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1119,13 +1128,13 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
-        <v>843.66</v>
+        <v>845.29</v>
       </c>
       <c r="G10" s="7">
-        <v>3479.05</v>
+        <v>3475.2</v>
       </c>
       <c r="H10" s="3">
-        <v>44.06</v>
+        <v>43.2</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -1134,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -1146,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1162,13 +1171,13 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
-        <v>853.41</v>
+        <v>853.74</v>
       </c>
       <c r="G11" s="7">
-        <v>2625.64</v>
+        <v>2621.46</v>
       </c>
       <c r="H11" s="3">
-        <v>34.31</v>
+        <v>34.75</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -1177,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
@@ -1189,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1205,13 +1214,13 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
-        <v>860.96</v>
+        <v>862.28</v>
       </c>
       <c r="G12" s="7">
-        <v>1764.68</v>
+        <v>1759.18</v>
       </c>
       <c r="H12" s="3">
-        <v>26.76</v>
+        <v>26.21</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -1220,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -1232,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1248,13 +1257,13 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
-        <v>870.31</v>
+        <v>870.9</v>
       </c>
       <c r="G13" s="3">
-        <v>894.37</v>
+        <v>888.28</v>
       </c>
       <c r="H13" s="3">
-        <v>17.41</v>
+        <v>17.59</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
@@ -1263,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
@@ -1275,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="3">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1291,13 +1300,13 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
-        <v>894.37</v>
+        <v>888.28</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>9.1199999999999992</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1306,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>903.49</v>
+        <v>897.16</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1318,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>903.49</v>
+        <v>897.16</v>
       </c>
     </row>
   </sheetData>
@@ -1328,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1343,7 +1352,7 @@
     <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1375,9 +1384,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="20">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>28</v>
@@ -1389,13 +1398,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="20">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="F2" s="20">
-        <v>785.8</v>
+        <v>788.49</v>
       </c>
       <c r="G2" s="20">
-        <v>101.92</v>
+        <v>100</v>
       </c>
       <c r="H2" s="20">
         <v>0</v>
@@ -1404,15 +1413,12 @@
         <v>0</v>
       </c>
       <c r="J2" s="22">
-        <v>9214.2000000000007</v>
-      </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9211.51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>28</v>
@@ -1441,12 +1447,6 @@
       <c r="J3" s="23">
         <v>10000</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E18" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/245-MS-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/245-MS-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -17,10 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
-  <si>
-    <t>click</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>makerepayment</t>
   </si>
@@ -28,9 +25,6 @@
     <t>Repayment</t>
   </si>
   <si>
-    <t>transactiondate</t>
-  </si>
-  <si>
     <t>Disbursement</t>
   </si>
   <si>
@@ -101,6 +95,21 @@
   </si>
   <si>
     <t>Loan Balance</t>
+  </si>
+  <si>
+    <t>Entry ID</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Head Office</t>
+  </si>
+  <si>
+    <t>clickonmakerepayment</t>
+  </si>
+  <si>
+    <t>repaymenttransactiondate</t>
   </si>
 </sst>
 </file>
@@ -166,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -218,6 +227,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -533,15 +554,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6">
         <v>42036</v>
@@ -571,22 +592,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -706,10 +727,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="P1" sqref="P1:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -722,52 +743,52 @@
     <col min="16" max="16" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="E1" s="19"/>
       <c r="F1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="L1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="11">
@@ -792,9 +813,9 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -835,11 +856,11 @@
       <c r="N3" s="3">
         <v>0</v>
       </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -878,11 +899,11 @@
       <c r="N4" s="3">
         <v>0</v>
       </c>
-      <c r="O4" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -921,11 +942,11 @@
       <c r="N5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -964,11 +985,11 @@
       <c r="N6" s="3">
         <v>0</v>
       </c>
-      <c r="O6" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1007,11 +1028,11 @@
       <c r="N7" s="3">
         <v>0</v>
       </c>
-      <c r="O7" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1050,11 +1071,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1093,11 +1114,11 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1136,11 +1157,11 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1179,11 +1200,11 @@
       <c r="N11" s="3">
         <v>0</v>
       </c>
-      <c r="O11" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1222,11 +1243,11 @@
       <c r="N12" s="3">
         <v>0</v>
       </c>
-      <c r="O12" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1265,11 +1286,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1308,7 +1329,7 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>897.16</v>
       </c>
     </row>
@@ -1319,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1334,96 +1355,114 @@
     <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="21">
+        <v>2622</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="22">
         <v>42036</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="21">
+        <v>888.49</v>
+      </c>
+      <c r="F2" s="21">
+        <v>788.49</v>
+      </c>
+      <c r="G2" s="21">
+        <v>100</v>
+      </c>
+      <c r="H2" s="21">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21">
+        <v>0</v>
+      </c>
+      <c r="J2" s="23">
+        <v>9211.51</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2"/>
+      <c r="N2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <v>2621</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="22">
+        <v>42005</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
-        <v>888.49</v>
-      </c>
-      <c r="D2" s="3">
-        <v>788.49</v>
-      </c>
-      <c r="E2" s="3">
-        <v>100</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>9211.51</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2"/>
-      <c r="L2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
-        <v>42005</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="E3" s="24">
         <v>10000</v>
       </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21">
+        <v>0</v>
+      </c>
+      <c r="H3" s="21">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21">
+        <v>0</v>
+      </c>
+      <c r="J3" s="24">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="11"/>

--- a/Mifos Automation Excels/Client/245-MS-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/245-MS-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -210,9 +210,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -237,6 +234,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -542,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -576,10 +576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -615,25 +615,25 @@
         <v>10000</v>
       </c>
       <c r="B2" s="3">
-        <v>788.49</v>
+        <v>785.8</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="7">
-        <v>9211.51</v>
+        <v>9214.2000000000007</v>
       </c>
       <c r="F2" s="3">
-        <v>796.37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>802.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>670.55</v>
+        <v>668.41</v>
       </c>
       <c r="B3" s="3">
-        <v>100</v>
+        <v>101.92</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>570.54999999999995</v>
+        <v>566.49</v>
       </c>
       <c r="F3" s="3">
-        <v>92.12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>84.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -688,36 +688,24 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="14"/>
+    </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D13" s="13"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="13"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D8" s="13"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -730,7 +718,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -743,48 +731,48 @@
     <col min="16" max="16" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -830,13 +818,13 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="3">
-        <v>788.49</v>
+        <v>785.8</v>
       </c>
       <c r="G3" s="7">
-        <v>9211.51</v>
+        <v>9214.2000000000007</v>
       </c>
       <c r="H3" s="3">
-        <v>100</v>
+        <v>101.92</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -845,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L3" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="M3" s="3">
         <v>0</v>
@@ -873,13 +861,13 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
-        <v>796.37</v>
+        <v>802.9</v>
       </c>
       <c r="G4" s="7">
-        <v>8415.14</v>
+        <v>8411.2999999999993</v>
       </c>
       <c r="H4" s="3">
-        <v>92.12</v>
+        <v>84.82</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -888,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
@@ -900,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -916,13 +904,13 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
-        <v>796.37</v>
+        <v>793.81</v>
       </c>
       <c r="G5" s="7">
-        <v>7618.77</v>
+        <v>7617.49</v>
       </c>
       <c r="H5" s="3">
-        <v>92.12</v>
+        <v>93.91</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -931,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
@@ -943,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -959,13 +947,13 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
-        <v>812.3</v>
+        <v>812.59</v>
       </c>
       <c r="G6" s="7">
-        <v>6806.47</v>
+        <v>6804.9</v>
       </c>
       <c r="H6" s="3">
-        <v>76.19</v>
+        <v>75.13</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -974,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -986,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1002,13 +990,13 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
-        <v>820.43</v>
+        <v>818.37</v>
       </c>
       <c r="G7" s="7">
-        <v>5986.04</v>
+        <v>5986.53</v>
       </c>
       <c r="H7" s="3">
-        <v>68.06</v>
+        <v>69.349999999999994</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1017,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
@@ -1029,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1045,13 +1033,13 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
-        <v>828.63</v>
+        <v>828.67</v>
       </c>
       <c r="G8" s="7">
-        <v>5157.41</v>
+        <v>5157.8599999999997</v>
       </c>
       <c r="H8" s="3">
-        <v>59.86</v>
+        <v>59.05</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -1060,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -1072,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1088,13 +1076,13 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
-        <v>836.92</v>
+        <v>835.15</v>
       </c>
       <c r="G9" s="7">
-        <v>4320.49</v>
+        <v>4322.71</v>
       </c>
       <c r="H9" s="3">
-        <v>51.57</v>
+        <v>52.57</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -1103,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -1115,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1131,13 +1119,13 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
-        <v>845.29</v>
+        <v>843.66</v>
       </c>
       <c r="G10" s="7">
-        <v>3475.2</v>
+        <v>3479.05</v>
       </c>
       <c r="H10" s="3">
-        <v>43.2</v>
+        <v>44.06</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -1146,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -1158,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1174,13 +1162,13 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
-        <v>853.74</v>
+        <v>853.41</v>
       </c>
       <c r="G11" s="7">
-        <v>2621.46</v>
+        <v>2625.64</v>
       </c>
       <c r="H11" s="3">
-        <v>34.75</v>
+        <v>34.31</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -1189,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
@@ -1201,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1217,13 +1205,13 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
-        <v>862.28</v>
+        <v>860.96</v>
       </c>
       <c r="G12" s="7">
-        <v>1759.18</v>
+        <v>1764.68</v>
       </c>
       <c r="H12" s="3">
-        <v>26.21</v>
+        <v>26.76</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -1232,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -1244,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1260,13 +1248,13 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
-        <v>870.9</v>
+        <v>870.31</v>
       </c>
       <c r="G13" s="3">
-        <v>888.28</v>
+        <v>894.37</v>
       </c>
       <c r="H13" s="3">
-        <v>17.59</v>
+        <v>17.41</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
@@ -1275,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
@@ -1287,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="3">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1303,13 +1291,13 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
-        <v>888.28</v>
+        <v>894.37</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>8.8800000000000008</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1318,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>897.16</v>
+        <v>903.49</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1330,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>897.16</v>
+        <v>903.49</v>
       </c>
     </row>
   </sheetData>
@@ -1340,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1355,7 +1343,7 @@
     <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1387,92 +1375,78 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
-        <v>2622</v>
-      </c>
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="20">
+        <v>75</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <v>42036</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="21">
-        <v>888.49</v>
-      </c>
-      <c r="F2" s="21">
-        <v>788.49</v>
-      </c>
-      <c r="G2" s="21">
-        <v>100</v>
-      </c>
-      <c r="H2" s="21">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21">
-        <v>0</v>
-      </c>
-      <c r="J2" s="23">
-        <v>9211.51</v>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2"/>
-      <c r="N2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
-        <v>2621</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="E2" s="20">
+        <v>887.72</v>
+      </c>
+      <c r="F2" s="20">
+        <v>785.8</v>
+      </c>
+      <c r="G2" s="20">
+        <v>101.92</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20">
+        <v>0</v>
+      </c>
+      <c r="J2" s="22">
+        <v>9214.2000000000007</v>
+      </c>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>73</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>42005</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <v>10000</v>
       </c>
-      <c r="F3" s="21">
-        <v>0</v>
-      </c>
-      <c r="G3" s="21">
-        <v>0</v>
-      </c>
-      <c r="H3" s="21">
-        <v>0</v>
-      </c>
-      <c r="I3" s="21">
-        <v>0</v>
-      </c>
-      <c r="J3" s="24">
+      <c r="F3" s="20">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20">
+        <v>0</v>
+      </c>
+      <c r="J3" s="23">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="3"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E21" s="18"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/245-MS-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/245-MS-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -115,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -246,6 +251,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -293,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,9 +334,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,6 +386,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -724,10 +766,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -735,12 +777,12 @@
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="13" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
@@ -778,14 +820,15 @@
       <c r="M1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="11">
@@ -810,9 +853,10 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -850,14 +894,15 @@
       <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -893,14 +938,15 @@
       <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -936,14 +982,15 @@
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -979,14 +1026,15 @@
       <c r="M6" s="3">
         <v>0</v>
       </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1022,14 +1070,15 @@
       <c r="M7" s="3">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1065,14 +1114,15 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1108,14 +1158,15 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1151,14 +1202,15 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1194,14 +1246,15 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1237,14 +1290,15 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1280,14 +1334,15 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1323,10 +1378,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>897.16</v>
       </c>
     </row>
@@ -1339,7 +1395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/245-MS-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/245-MS-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -120,8 +115,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -135,11 +130,6 @@
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -180,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -197,33 +187,14 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,26 +305,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,23 +340,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -615,10 +552,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -629,7 +566,7 @@
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -649,8 +586,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>10000</v>
       </c>
       <c r="B2" s="3">
@@ -667,7 +604,7 @@
         <v>796.37</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>670.55</v>
       </c>
@@ -687,7 +624,7 @@
         <v>92.12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -707,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -726,37 +663,6 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D13" s="13"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -768,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
@@ -782,62 +688,62 @@
     <col min="17" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="11">
+      <c r="C2" s="9">
         <v>42005</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>10000</v>
       </c>
       <c r="H2" s="3"/>
@@ -863,13 +769,13 @@
       <c r="B3" s="3">
         <v>31</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>42036</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>42036</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="3">
         <v>788.49</v>
       </c>
@@ -909,7 +815,7 @@
       <c r="B4" s="3">
         <v>28</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>42064</v>
       </c>
       <c r="D4" s="3"/>
@@ -953,7 +859,7 @@
       <c r="B5" s="3">
         <v>31</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>42095</v>
       </c>
       <c r="D5" s="3"/>
@@ -997,7 +903,7 @@
       <c r="B6" s="3">
         <v>30</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>42125</v>
       </c>
       <c r="D6" s="3"/>
@@ -1041,7 +947,7 @@
       <c r="B7" s="3">
         <v>31</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>42156</v>
       </c>
       <c r="D7" s="3"/>
@@ -1085,7 +991,7 @@
       <c r="B8" s="3">
         <v>30</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>42186</v>
       </c>
       <c r="D8" s="3"/>
@@ -1129,7 +1035,7 @@
       <c r="B9" s="3">
         <v>31</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>42217</v>
       </c>
       <c r="D9" s="3"/>
@@ -1173,7 +1079,7 @@
       <c r="B10" s="3">
         <v>31</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>42248</v>
       </c>
       <c r="D10" s="3"/>
@@ -1217,7 +1123,7 @@
       <c r="B11" s="3">
         <v>30</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>42278</v>
       </c>
       <c r="D11" s="3"/>
@@ -1261,7 +1167,7 @@
       <c r="B12" s="3">
         <v>31</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>42309</v>
       </c>
       <c r="D12" s="3"/>
@@ -1305,7 +1211,7 @@
       <c r="B13" s="3">
         <v>30</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>42339</v>
       </c>
       <c r="D13" s="3"/>
@@ -1349,7 +1255,7 @@
       <c r="B14" s="3">
         <v>31</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>42370</v>
       </c>
       <c r="D14" s="3"/>
@@ -1441,66 +1347,66 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+      <c r="A2" s="13">
         <v>80</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="14">
         <v>42036</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="20">
-        <v>888.49</v>
-      </c>
-      <c r="F2" s="20">
+      <c r="E2" s="13">
+        <v>888.49</v>
+      </c>
+      <c r="F2" s="13">
         <v>788.49</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="13">
         <v>100</v>
       </c>
-      <c r="H2" s="20">
-        <v>0</v>
-      </c>
-      <c r="I2" s="20">
-        <v>0</v>
-      </c>
-      <c r="J2" s="22">
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15">
         <v>9211.51</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+      <c r="A3" s="13">
         <v>77</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="14">
         <v>42005</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="16">
         <v>10000</v>
       </c>
-      <c r="F3" s="20">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="20">
-        <v>0</v>
-      </c>
-      <c r="I3" s="20">
-        <v>0</v>
-      </c>
-      <c r="J3" s="23">
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
         <v>10000</v>
       </c>
     </row>
